--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Re4fe48080ca94bae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R05db35aca30846ce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R05db35aca30846ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R36fec6c01e2c4fb0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R36fec6c01e2c4fb0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R85348d11b7614268"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R85348d11b7614268"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R07041ef6a655445b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R07041ef6a655445b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd37b7e812cb34b9e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd37b7e812cb34b9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R66145388efa2446e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R66145388efa2446e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Raef0ffc0ba4a4629"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Raef0ffc0ba4a4629"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R80e1773c60b44bd2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R80e1773c60b44bd2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R1d0580e6d3114fc9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R1d0580e6d3114fc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd9c2f9b713b14e73"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd9c2f9b713b14e73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R2e482c4a0385481d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,24 +30,24 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R2e482c4a0385481d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd1b00fab4e2342a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,24 +30,24 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/022_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd1b00fab4e2342a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rc8168f5e8ebd4bfb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
